--- a/planilhas/CFM.xlsx
+++ b/planilhas/CFM.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\OneDrive\Documentos\GitHub\analisadorPlanilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82024889-CE87-46F9-9DFB-E3502770ABE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAFF8FB-865F-4A65-AC00-7DF797B4411B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$J$513</definedName>
@@ -23466,28 +23464,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>